--- a/F_dataset/ChEMBL/ALK/ALK_preprocessing/ALK_g1.xlsx
+++ b/F_dataset/ChEMBL/ALK/ALK_preprocessing/ALK_g1.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F183450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BACF4C0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973990&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973A00&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973A70&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973AE0&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973B50&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973BC0&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973C30&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973CA0&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973D10&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973D80&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973DF0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973E60&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973ED0&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973F40&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C1A7F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96B920&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19F990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96B990&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BA00&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BA70&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BAE0&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BB50&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BC30&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BCA0&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BD10&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BD80&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BDF0&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BE60&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BED0&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BF40&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422C19FC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BBC0&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3F40&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3ED0&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3E60&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3DF0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3D80&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3D10&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3CA0&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3C30&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3BC0&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3B50&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3AE0&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3A70&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3A00&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3990&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3920&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F1638B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3840&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F1637D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB37D0&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3760&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F1636F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB36F0&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002422F163680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3680&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
